--- a/src/RegressionTests/Katalon/inputFiles/test_GenScript_HT_DNA_DeliveryFile.xlsx
+++ b/src/RegressionTests/Katalon/inputFiles/test_GenScript_HT_DNA_DeliveryFile.xlsx
@@ -698,274 +698,274 @@
     <t>VCR020-GFP</t>
   </si>
   <si>
-    <t>TEST0000013</t>
-  </si>
-  <si>
-    <t>TEST0000026</t>
-  </si>
-  <si>
-    <t>TEST0000037</t>
-  </si>
-  <si>
-    <t>TEST0001397</t>
-  </si>
-  <si>
-    <t>TEST0001463</t>
-  </si>
-  <si>
-    <t>TEST0005460</t>
-  </si>
-  <si>
-    <t>TEST0005476</t>
-  </si>
-  <si>
-    <t>TEST0005477</t>
-  </si>
-  <si>
-    <t>TEST0005478</t>
-  </si>
-  <si>
-    <t>TEST0005479</t>
-  </si>
-  <si>
-    <t>TEST0005480</t>
-  </si>
-  <si>
-    <t>TEST0005481</t>
-  </si>
-  <si>
-    <t>TEST0005482</t>
-  </si>
-  <si>
-    <t>TEST0005483</t>
-  </si>
-  <si>
-    <t>TEST0005484</t>
-  </si>
-  <si>
-    <t>TEST0005485</t>
-  </si>
-  <si>
-    <t>TEST0005486</t>
-  </si>
-  <si>
-    <t>TEST0005487</t>
-  </si>
-  <si>
-    <t>TEST0005488</t>
-  </si>
-  <si>
-    <t>TEST0005489</t>
-  </si>
-  <si>
-    <t>TEST0005490</t>
-  </si>
-  <si>
-    <t>TEST0005491</t>
-  </si>
-  <si>
-    <t>TEST0005492</t>
-  </si>
-  <si>
-    <t>TEST0005493</t>
-  </si>
-  <si>
-    <t>TEST0005494</t>
-  </si>
-  <si>
-    <t>TEST0005495</t>
-  </si>
-  <si>
-    <t>TEST0005496</t>
-  </si>
-  <si>
-    <t>TEST0005497</t>
-  </si>
-  <si>
-    <t>TEST0005498</t>
-  </si>
-  <si>
-    <t>TEST0005499</t>
-  </si>
-  <si>
-    <t>TEST0005500</t>
-  </si>
-  <si>
-    <t>TEST0005501</t>
-  </si>
-  <si>
-    <t>TEST0005502</t>
-  </si>
-  <si>
-    <t>TEST0005503</t>
-  </si>
-  <si>
-    <t>TEST0005504</t>
-  </si>
-  <si>
-    <t>TEST0005505</t>
-  </si>
-  <si>
-    <t>TEST0005506</t>
-  </si>
-  <si>
-    <t>TEST0005507</t>
-  </si>
-  <si>
-    <t>TEST0005508</t>
-  </si>
-  <si>
-    <t>TEST0005509</t>
-  </si>
-  <si>
-    <t>TEST0005510</t>
-  </si>
-  <si>
-    <t>TEST0005511</t>
-  </si>
-  <si>
-    <t>TEST0005512</t>
-  </si>
-  <si>
-    <t>TEST0005513</t>
-  </si>
-  <si>
-    <t>TEST0005514</t>
-  </si>
-  <si>
-    <t>TEST0005515</t>
-  </si>
-  <si>
-    <t>TEST0005516</t>
-  </si>
-  <si>
-    <t>TEST0005517</t>
-  </si>
-  <si>
-    <t>TEST0005518</t>
-  </si>
-  <si>
-    <t>TEST0005519</t>
-  </si>
-  <si>
-    <t>TEST0005520</t>
-  </si>
-  <si>
-    <t>TEST0005521</t>
-  </si>
-  <si>
-    <t>TEST0005522</t>
-  </si>
-  <si>
-    <t>TEST0005523</t>
-  </si>
-  <si>
-    <t>TEST0005524</t>
-  </si>
-  <si>
-    <t>TEST0005525</t>
-  </si>
-  <si>
-    <t>TEST0005526</t>
-  </si>
-  <si>
-    <t>TEST0005527</t>
-  </si>
-  <si>
-    <t>TEST0005528</t>
-  </si>
-  <si>
-    <t>TEST0005529</t>
-  </si>
-  <si>
-    <t>TEST0005530</t>
-  </si>
-  <si>
-    <t>TEST0005531</t>
-  </si>
-  <si>
-    <t>TEST0005532</t>
-  </si>
-  <si>
-    <t>TEST0005533</t>
-  </si>
-  <si>
-    <t>TEST0005534</t>
-  </si>
-  <si>
-    <t>TEST0005535</t>
-  </si>
-  <si>
-    <t>TEST0005536</t>
-  </si>
-  <si>
-    <t>TEST0005537</t>
-  </si>
-  <si>
-    <t>TEST0005538</t>
-  </si>
-  <si>
-    <t>TEST0005539</t>
-  </si>
-  <si>
-    <t>TEST0005540</t>
-  </si>
-  <si>
-    <t>TEST0005541</t>
-  </si>
-  <si>
-    <t>TEST0005542</t>
-  </si>
-  <si>
-    <t>TEST0005543</t>
-  </si>
-  <si>
-    <t>TEST0005544</t>
-  </si>
-  <si>
-    <t>TEST0005545</t>
-  </si>
-  <si>
-    <t>TEST0005546</t>
-  </si>
-  <si>
-    <t>TEST0005547</t>
-  </si>
-  <si>
-    <t>TEST0005548</t>
-  </si>
-  <si>
-    <t>TEST0005549</t>
-  </si>
-  <si>
-    <t>TEST0005550</t>
-  </si>
-  <si>
-    <t>TEST0005551</t>
-  </si>
-  <si>
-    <t>TEST0005552</t>
-  </si>
-  <si>
-    <t>TEST0005553</t>
-  </si>
-  <si>
-    <t>TEST0005554</t>
-  </si>
-  <si>
-    <t>TEST0005555</t>
-  </si>
-  <si>
-    <t>TEST0005556</t>
-  </si>
-  <si>
-    <t>TEST0005557</t>
-  </si>
-  <si>
-    <t>TEST0005645</t>
-  </si>
-  <si>
-    <t>TEST0005647</t>
+    <t>TST0000013</t>
+  </si>
+  <si>
+    <t>TST0000026</t>
+  </si>
+  <si>
+    <t>TST0000037</t>
+  </si>
+  <si>
+    <t>TST0001397</t>
+  </si>
+  <si>
+    <t>TST0001463</t>
+  </si>
+  <si>
+    <t>TST0005460</t>
+  </si>
+  <si>
+    <t>TST0005476</t>
+  </si>
+  <si>
+    <t>TST0005477</t>
+  </si>
+  <si>
+    <t>TST0005478</t>
+  </si>
+  <si>
+    <t>TST0005479</t>
+  </si>
+  <si>
+    <t>TST0005480</t>
+  </si>
+  <si>
+    <t>TST0005481</t>
+  </si>
+  <si>
+    <t>TST0005482</t>
+  </si>
+  <si>
+    <t>TST0005483</t>
+  </si>
+  <si>
+    <t>TST0005484</t>
+  </si>
+  <si>
+    <t>TST0005485</t>
+  </si>
+  <si>
+    <t>TST0005486</t>
+  </si>
+  <si>
+    <t>TST0005487</t>
+  </si>
+  <si>
+    <t>TST0005488</t>
+  </si>
+  <si>
+    <t>TST0005489</t>
+  </si>
+  <si>
+    <t>TST0005490</t>
+  </si>
+  <si>
+    <t>TST0005491</t>
+  </si>
+  <si>
+    <t>TST0005492</t>
+  </si>
+  <si>
+    <t>TST0005493</t>
+  </si>
+  <si>
+    <t>TST0005494</t>
+  </si>
+  <si>
+    <t>TST0005495</t>
+  </si>
+  <si>
+    <t>TST0005496</t>
+  </si>
+  <si>
+    <t>TST0005497</t>
+  </si>
+  <si>
+    <t>TST0005498</t>
+  </si>
+  <si>
+    <t>TST0005499</t>
+  </si>
+  <si>
+    <t>TST0005500</t>
+  </si>
+  <si>
+    <t>TST0005501</t>
+  </si>
+  <si>
+    <t>TST0005502</t>
+  </si>
+  <si>
+    <t>TST0005503</t>
+  </si>
+  <si>
+    <t>TST0005504</t>
+  </si>
+  <si>
+    <t>TST0005505</t>
+  </si>
+  <si>
+    <t>TST0005506</t>
+  </si>
+  <si>
+    <t>TST0005507</t>
+  </si>
+  <si>
+    <t>TST0005508</t>
+  </si>
+  <si>
+    <t>TST0005509</t>
+  </si>
+  <si>
+    <t>TST0005510</t>
+  </si>
+  <si>
+    <t>TST0005511</t>
+  </si>
+  <si>
+    <t>TST0005512</t>
+  </si>
+  <si>
+    <t>TST0005513</t>
+  </si>
+  <si>
+    <t>TST0005514</t>
+  </si>
+  <si>
+    <t>TST0005515</t>
+  </si>
+  <si>
+    <t>TST0005516</t>
+  </si>
+  <si>
+    <t>TST0005517</t>
+  </si>
+  <si>
+    <t>TST0005518</t>
+  </si>
+  <si>
+    <t>TST0005519</t>
+  </si>
+  <si>
+    <t>TST0005520</t>
+  </si>
+  <si>
+    <t>TST0005521</t>
+  </si>
+  <si>
+    <t>TST0005522</t>
+  </si>
+  <si>
+    <t>TST0005523</t>
+  </si>
+  <si>
+    <t>TST0005524</t>
+  </si>
+  <si>
+    <t>TST0005525</t>
+  </si>
+  <si>
+    <t>TST0005526</t>
+  </si>
+  <si>
+    <t>TST0005527</t>
+  </si>
+  <si>
+    <t>TST0005528</t>
+  </si>
+  <si>
+    <t>TST0005529</t>
+  </si>
+  <si>
+    <t>TST0005530</t>
+  </si>
+  <si>
+    <t>TST0005531</t>
+  </si>
+  <si>
+    <t>TST0005532</t>
+  </si>
+  <si>
+    <t>TST0005533</t>
+  </si>
+  <si>
+    <t>TST0005534</t>
+  </si>
+  <si>
+    <t>TST0005535</t>
+  </si>
+  <si>
+    <t>TST0005536</t>
+  </si>
+  <si>
+    <t>TST0005537</t>
+  </si>
+  <si>
+    <t>TST0005538</t>
+  </si>
+  <si>
+    <t>TST0005539</t>
+  </si>
+  <si>
+    <t>TST0005540</t>
+  </si>
+  <si>
+    <t>TST0005541</t>
+  </si>
+  <si>
+    <t>TST0005542</t>
+  </si>
+  <si>
+    <t>TST0005543</t>
+  </si>
+  <si>
+    <t>TST0005544</t>
+  </si>
+  <si>
+    <t>TST0005545</t>
+  </si>
+  <si>
+    <t>TST0005546</t>
+  </si>
+  <si>
+    <t>TST0005547</t>
+  </si>
+  <si>
+    <t>TST0005548</t>
+  </si>
+  <si>
+    <t>TST0005549</t>
+  </si>
+  <si>
+    <t>TST0005550</t>
+  </si>
+  <si>
+    <t>TST0005551</t>
+  </si>
+  <si>
+    <t>TST0005552</t>
+  </si>
+  <si>
+    <t>TST0005553</t>
+  </si>
+  <si>
+    <t>TST0005554</t>
+  </si>
+  <si>
+    <t>TST0005555</t>
+  </si>
+  <si>
+    <t>TST0005556</t>
+  </si>
+  <si>
+    <t>TST0005557</t>
+  </si>
+  <si>
+    <t>TST0005645</t>
+  </si>
+  <si>
+    <t>TST0005647</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1292,7 +1292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
